--- a/code_testing_refe.xlsx
+++ b/code_testing_refe.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nagoba\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="step" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+  <si>
+    <t>Task name</t>
+  </si>
+  <si>
+    <t>Acd converstion</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
   <si>
     <t>steps</t>
   </si>
@@ -35,36 +35,42 @@
     <t>discrption</t>
   </si>
   <si>
+    <t>time at executions</t>
+  </si>
+  <si>
+    <t>test_discrption</t>
+  </si>
+  <si>
+    <t>Bug(NO,if yes write down)</t>
+  </si>
+  <si>
     <t>HAL_ADC_ConvCpltCallback</t>
   </si>
   <si>
+    <t>main.c</t>
+  </si>
+  <si>
     <t>This function should call preodically</t>
   </si>
   <si>
-    <t>test_discrption</t>
+    <t>125us</t>
   </si>
   <si>
     <t>put breakpoint and check this call every should call perodically</t>
   </si>
   <si>
-    <t>Bug(NO,if yes write down)</t>
-  </si>
-  <si>
     <t>Adc_Sample_Calculations</t>
   </si>
   <si>
+    <t>rms.c</t>
+  </si>
+  <si>
     <t>put breakpoint and check adc value</t>
   </si>
   <si>
     <t>Store_Adc_Data</t>
   </si>
   <si>
-    <t>time at executions</t>
-  </si>
-  <si>
-    <t>125us</t>
-  </si>
-  <si>
     <t>100ms</t>
   </si>
   <si>
@@ -90,30 +96,424 @@
   </si>
   <si>
     <t>check all calculate parameter</t>
+  </si>
+  <si>
+    <t>RMS Data Validations</t>
+  </si>
+  <si>
+    <t>avg.volt,avg.curr</t>
+  </si>
+  <si>
+    <t>it should be nearly 2048 in adc</t>
+  </si>
+  <si>
+    <t>common.Adc_volt_ll_sample</t>
+  </si>
+  <si>
+    <t>verify that by observing</t>
+  </si>
+  <si>
+    <t>common.Adc_Curr_sample_with_gain</t>
+  </si>
+  <si>
+    <t>common.Adc_Curr_sample_without_gain</t>
+  </si>
+  <si>
+    <t>common.Adc_SQR_Volt_Sample</t>
+  </si>
+  <si>
+    <t>common.Adc_SQR_Curr_sample_with_gain</t>
+  </si>
+  <si>
+    <t>common.Adc_SQR_Curr_sample_without_gain</t>
+  </si>
+  <si>
+    <t>store.Store_Adc__SQR_Volt_Sample[phase]</t>
+  </si>
+  <si>
+    <t>verify that by observing ,it should be nearly same for all same phase</t>
+  </si>
+  <si>
+    <t>store.Store_Adc__SQR_Curr_sample_with_gain[phase]</t>
+  </si>
+  <si>
+    <t>store.Store_Adc__SQR_Curr_sample_without_gain[phase]</t>
+  </si>
+  <si>
+    <t>scaling_factor.curr_scal_gain</t>
+  </si>
+  <si>
+    <t>verify that by observing and should not be zero or very large number as well</t>
+  </si>
+  <si>
+    <t>scaling_factor.volt_scal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -121,24 +521,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -187,7 +879,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -222,7 +914,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -396,143 +1088,322 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="3" width="26" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.2857142857143" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="57.5714285714286" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/code_testing_refe.xlsx
+++ b/code_testing_refe.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nagoba\MPR\MRP-NGB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="step" sheetId="2" r:id="rId2"/>
+    <sheet name="Rms" sheetId="1" r:id="rId1"/>
+    <sheet name="motor protections" sheetId="2" r:id="rId2"/>
+    <sheet name="communications" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Task name</t>
   </si>
@@ -147,19 +153,61 @@
   </si>
   <si>
     <t>scaling_factor.volt_scal</t>
+  </si>
+  <si>
+    <t>typedef struct send_data</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>measured_data_t *msd_ptr; // pointer to all mesured data structure</t>
+  </si>
+  <si>
+    <t>}send_data_t;</t>
+  </si>
+  <si>
+    <t>typedef struct data_send_with_fault</t>
+  </si>
+  <si>
+    <t>send_data_t *send_data;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint8_t  cause_of_fault; </t>
+  </si>
+  <si>
+    <t>}data_send_with_fault_t;</t>
+  </si>
+  <si>
+    <t>typedef struct meter_setup</t>
+  </si>
+  <si>
+    <t>uint32_t meter_setup_menu[TOTAL_SETUP_PARA];</t>
+  </si>
+  <si>
+    <t>}meter_setup_t;</t>
+  </si>
+  <si>
+    <t>void send_to_esp32(data_send_with_fault_t * send);</t>
+  </si>
+  <si>
+    <t>rcv setup paramerter from esp32</t>
+  </si>
+  <si>
+    <t>void recv_from_esp32(meter_setup_t * setup_menu);</t>
+  </si>
+  <si>
+    <t>data type and functions</t>
+  </si>
+  <si>
+    <t>communictaions.h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,353 +215,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -521,251 +232,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -776,61 +245,17 @@
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1088,29 +513,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5714285714286" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
     <col min="2" max="3" width="26" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.2857142857143" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7142857142857" style="2" customWidth="1"/>
-    <col min="6" max="6" width="57.5714285714286" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="57.5703125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1161,7 +586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1181,7 +606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1201,7 +626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1221,12 +646,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:7">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1246,7 +671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1268,7 +693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1282,7 +707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:7">
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1290,7 +715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="1:7">
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1298,7 +723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1309,7 +734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="1:4">
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1317,7 +742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:4">
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1339,7 +764,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="1:4">
       <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1350,7 +775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="1:4">
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1375,7 +800,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="1:4">
       <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
@@ -1388,22 +813,132 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>